--- a/docs/mcode/onco-core-GeneticVariantFound.xlsx
+++ b/docs/mcode/onco-core-GeneticVariantFound.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$170</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4713" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5590" uniqueCount="456">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,7 @@
     <t>onco-core-GeneticVariantFound</t>
   </si>
   <si>
-    <t>An alteration in the most common DNA nucleotide sequence. The term variant can be used to describe an alteration that may be benign, pathogenic, or of unknown significance. The term variant is increasingly being used in place of the term mutation. (source: NCI)</t>
+    <t>Data structure recording an alteration in the most common DNA nucleotide sequence. The term variant can be used to describe an alteration that may be benign, pathogenic, or of unknown significance. The term variant is increasingly being used in place of the term mutation.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as lab reports, etc.</t>
@@ -796,7 +796,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
 </t>
   </si>
   <si>
@@ -1249,7 +1249,7 @@
     <t>GenomicSourceClass</t>
   </si>
   <si>
-    <t>The genomic class of the specimen being analyzed: Germline for inherited genome, somatic for cancer genome, and prenatal for fetal genome. (source: LOINC)</t>
+    <t>The genomic class of the specimen being analyzed, for example, germline for inherited genome, somatic for cancer genome, and prenatal for fetal genome.</t>
   </si>
   <si>
     <t>Observation.component.id</t>
@@ -1373,41 +1373,58 @@
     <t>Observation.component.referenceRange.text</t>
   </si>
   <si>
-    <t>onco-core-ComplexVariantHGVSName</t>
-  </si>
-  <si>
-    <t>ComplexVariantHGVSName</t>
-  </si>
-  <si>
-    <t>This term is used to report the name of the complex variant found in this study in HGVS format. For example, c.[886C&gt;T;457G&gt;C], which represents two separate base substitutions in one gene on one chromosome, or c.[886C&gt;T];[457G&gt;C], which represents two separate base substitutions in one gene on two different chromosomes. (source: LOINC)</t>
-  </si>
-  <si>
-    <t>Fixed_81262-8</t>
-  </si>
-  <si>
-    <t>Complex variant HGVS name</t>
-  </si>
-  <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="81262-8"/&gt;</t>
+    <t>onco-core-VariantFoundIdentifier</t>
+  </si>
+  <si>
+    <t>VariantFoundIdentifier</t>
+  </si>
+  <si>
+    <t>The variation ID assigned by HGVS, for example, 360448 is the identifier for NM_005228.4(EGFR):c.-237A&gt;G (single nucleotide variant in EGFR).</t>
+  </si>
+  <si>
+    <t>Fixed_48003-8</t>
+  </si>
+  <si>
+    <t>DNA sequence variation identifier</t>
+  </si>
+  <si>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="48003-8"/&gt;</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar</t>
+  </si>
+  <si>
+    <t>onco-core-VariantFoundHGVSName</t>
+  </si>
+  <si>
+    <t>VariantFoundHGVSName</t>
+  </si>
+  <si>
+    <t>Symbolic representation of the variant used in HGVS, for example, NM_005228.4(EGFR):c.-237A&gt;G for HVGS variation ID 360448.</t>
+  </si>
+  <si>
+    <t>Fixed_82154-6</t>
+  </si>
+  <si>
+    <t>Genomic structural variant name</t>
+  </si>
+  <si>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="82154-6"/&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component.valueString</t>
   </si>
   <si>
     <t>Normally, an observation will have either a value or a set of related observations. A few observations (e.g. Apgar score) may have both a value and related observations (for an Apgar score, the observations from which the measure is derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.   For boolean values use valueCodeableConcept and select codes from &lt;http://hl7.org/fhir/ValueSet/v2-0136&gt; (These "yes/no" concepts can be mapped to the display name "true/false" or other mutually exclusive terms that may be needed").  The element, Observation.value[x], has a variable name depending on the type as follows: valueQuantity, valueCodeableConcept, valueRatio, valueChoice, valuePeriod, valueSampleData, or valueString (The name format is "'value' + the type name" with a capital on the first letter of the type).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>http://varnomen.hgvs.org</t>
-  </si>
-  <si>
-    <t>onco-core-ComplexVariantCommonName</t>
-  </si>
-  <si>
-    <t>ComplexVariantCommonName</t>
-  </si>
-  <si>
-    <t>Thumbnail 'textual display' convention of a single DNA Marker and its interpretation (source: LOINC).  This ideally should be a human-readable display of the value 'ComplexVariantHGVSName'</t>
+    <t>onco-core-VariantFoundDescription</t>
+  </si>
+  <si>
+    <t>VariantFoundDescription</t>
+  </si>
+  <si>
+    <t>Description of the variant. Ideally, this should be a human-readable 'thumbnail' display.</t>
   </si>
   <si>
     <t>Fixed_47998-0</t>
@@ -1417,9 +1434,6 @@
   </si>
   <si>
     <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="47998-0"/&gt;</t>
-  </si>
-  <si>
-    <t>Observation.component.valueString</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM143"/>
+  <dimension ref="A1:AM170"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1578,7 +1592,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.55078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.2421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -5793,7 +5807,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>296</v>
       </c>
@@ -5809,7 +5823,7 @@
         <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>42</v>
@@ -5855,7 +5869,7 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
@@ -9746,7 +9760,7 @@
         <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
@@ -12567,7 +12581,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12590,7 +12604,7 @@
         <v>52</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>418</v>
@@ -12598,12 +12612,8 @@
       <c r="L104" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M104" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>260</v>
-      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>42</v>
       </c>
@@ -12624,29 +12634,29 @@
         <v>42</v>
       </c>
       <c r="V104" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X104" s="2"/>
       <c r="Y104" t="s" s="2">
-        <v>42</v>
+        <v>441</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AB104" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="AE104" t="s" s="2">
         <v>421</v>
@@ -12664,10 +12674,10 @@
         <v>42</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>42</v>
@@ -12675,7 +12685,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12686,7 +12696,7 @@
         <v>40</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>42</v>
@@ -12695,19 +12705,23 @@
         <v>42</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>42</v>
       </c>
@@ -12728,14 +12742,14 @@
         <v>42</v>
       </c>
       <c r="V105" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="X105" s="2"/>
       <c r="Y105" t="s" s="2">
-        <v>443</v>
+        <v>269</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>42</v>
@@ -12753,7 +12767,7 @@
         <v>42</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
@@ -12762,16 +12776,16 @@
         <v>51</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>42</v>
@@ -12779,7 +12793,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12790,7 +12804,7 @@
         <v>40</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>42</v>
@@ -12802,19 +12816,19 @@
         <v>42</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>128</v>
+        <v>319</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>424</v>
+        <v>322</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>42</v>
@@ -12836,14 +12850,16 @@
         <v>42</v>
       </c>
       <c r="V106" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X106" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y106" t="s" s="2">
-        <v>269</v>
+        <v>42</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>42</v>
@@ -12861,25 +12877,25 @@
         <v>42</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>88</v>
+        <v>325</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>42</v>
@@ -12887,7 +12903,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -12910,20 +12926,16 @@
         <v>42</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>319</v>
+        <v>53</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>426</v>
+        <v>151</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>42</v>
       </c>
@@ -12970,15 +12982,11 @@
       <c r="AD107" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE107" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="AE107" s="2"/>
       <c r="AF107" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG107" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG107" s="2"/>
       <c r="AH107" t="s" s="2">
         <v>42</v>
       </c>
@@ -12986,10 +12994,10 @@
         <v>42</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>325</v>
+        <v>42</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>326</v>
+        <v>153</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>42</v>
@@ -12997,18 +13005,18 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>42</v>
@@ -13020,15 +13028,17 @@
         <v>42</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M108" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>42</v>
@@ -13099,11 +13109,11 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13116,7 +13126,7 @@
         <v>42</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>42</v>
@@ -13125,10 +13135,10 @@
         <v>91</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>155</v>
+        <v>331</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>94</v>
@@ -13195,7 +13205,7 @@
         <v>42</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>42</v>
@@ -13203,40 +13213,38 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>91</v>
+        <v>333</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>96</v>
+        <v>334</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>42</v>
@@ -13290,16 +13298,16 @@
       </c>
       <c r="AG110" s="2"/>
       <c r="AH110" t="s" s="2">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>88</v>
+        <v>338</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>42</v>
@@ -13307,7 +13315,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13333,10 +13341,10 @@
         <v>333</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -13401,7 +13409,7 @@
         <v>337</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>42</v>
@@ -13409,7 +13417,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13432,16 +13440,20 @@
         <v>42</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>333</v>
+        <v>128</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>42</v>
       </c>
@@ -13465,13 +13477,13 @@
         <v>42</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>42</v>
@@ -13494,16 +13506,16 @@
       </c>
       <c r="AG112" s="2"/>
       <c r="AH112" t="s" s="2">
-        <v>336</v>
+        <v>42</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>42</v>
@@ -13511,7 +13523,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13534,19 +13546,17 @@
         <v>42</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>42</v>
@@ -13571,13 +13581,13 @@
         <v>42</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>42</v>
@@ -13606,10 +13616,10 @@
         <v>42</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>350</v>
+        <v>42</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>42</v>
@@ -13617,7 +13627,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13640,18 +13650,16 @@
         <v>42</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>352</v>
+        <v>178</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M114" s="2"/>
-      <c r="N114" t="s" s="2">
-        <v>355</v>
-      </c>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>42</v>
       </c>
@@ -13710,20 +13718,22 @@
         <v>42</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B115" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="C115" t="s" s="2">
         <v>42</v>
       </c>
@@ -13732,25 +13742,25 @@
         <v>40</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>178</v>
+        <v>319</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>358</v>
+        <v>443</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>359</v>
+        <v>444</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -13774,7 +13784,7 @@
         <v>42</v>
       </c>
       <c r="V115" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W115" t="s" s="2">
         <v>42</v>
@@ -13800,11 +13810,15 @@
       <c r="AD115" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE115" s="2"/>
+      <c r="AE115" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="AF115" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG115" s="2"/>
+      <c r="AG115" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH115" t="s" s="2">
         <v>42</v>
       </c>
@@ -13812,22 +13826,20 @@
         <v>42</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
         <v>42</v>
       </c>
@@ -13839,22 +13851,22 @@
         <v>51</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>319</v>
+        <v>53</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>445</v>
+        <v>151</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>446</v>
+        <v>152</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -13905,13 +13917,13 @@
         <v>42</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>42</v>
@@ -13920,10 +13932,10 @@
         <v>42</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>390</v>
+        <v>42</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>391</v>
+        <v>153</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>42</v>
@@ -13931,18 +13943,18 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>42</v>
@@ -13954,15 +13966,17 @@
         <v>42</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M117" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>42</v>
@@ -14011,13 +14025,13 @@
         <v>42</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>42</v>
@@ -14037,11 +14051,11 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14054,7 +14068,7 @@
         <v>42</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>42</v>
@@ -14063,10 +14077,10 @@
         <v>91</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>155</v>
+        <v>331</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>94</v>
@@ -14119,7 +14133,7 @@
         <v>42</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -14137,7 +14151,7 @@
         <v>42</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>42</v>
@@ -14145,41 +14159,41 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H119" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I119" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I119" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J119" t="s" s="2">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>96</v>
+        <v>399</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N119" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>42</v>
       </c>
@@ -14203,13 +14217,13 @@
         <v>40</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>42</v>
@@ -14227,33 +14241,33 @@
         <v>42</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>42</v>
+        <v>402</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14261,7 +14275,7 @@
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s" s="2">
         <v>51</v>
@@ -14273,21 +14287,19 @@
         <v>42</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>399</v>
+        <v>151</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>400</v>
+        <v>152</v>
       </c>
       <c r="M120" s="2"/>
-      <c r="N120" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>42</v>
       </c>
@@ -14308,16 +14320,16 @@
         <v>42</v>
       </c>
       <c r="V120" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>42</v>
@@ -14334,45 +14346,41 @@
       <c r="AD120" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE120" t="s" s="2">
-        <v>398</v>
-      </c>
+      <c r="AE120" s="2"/>
       <c r="AF120" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG120" s="2"/>
       <c r="AH120" t="s" s="2">
-        <v>402</v>
+        <v>42</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>42</v>
@@ -14384,15 +14392,17 @@
         <v>42</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M121" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>42</v>
@@ -14463,15 +14473,15 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F122" t="s" s="2">
         <v>41</v>
@@ -14483,21 +14493,23 @@
         <v>42</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>42</v>
       </c>
@@ -14533,16 +14545,14 @@
         <v>42</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AB122" s="2"/>
       <c r="AC122" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD122" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="AE122" s="2"/>
       <c r="AF122" t="s" s="2">
@@ -14556,10 +14566,10 @@
         <v>42</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>42</v>
@@ -14569,7 +14579,9 @@
       <c r="A123" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="B123" s="2"/>
+      <c r="B123" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="C123" t="s" s="2">
         <v>42</v>
       </c>
@@ -14578,7 +14590,7 @@
         <v>51</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>42</v>
@@ -14593,17 +14605,13 @@
         <v>157</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>158</v>
+        <v>446</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>42</v>
       </c>
@@ -14639,14 +14647,16 @@
         <v>42</v>
       </c>
       <c r="AA123" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB123" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC123" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD123" t="s" s="2">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="AE123" s="2"/>
       <c r="AF123" t="s" s="2">
@@ -14660,10 +14670,10 @@
         <v>42</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>42</v>
@@ -14671,17 +14681,15 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s" s="2">
         <v>51</v>
@@ -14693,16 +14701,16 @@
         <v>42</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>448</v>
+        <v>151</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>448</v>
+        <v>152</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -14767,7 +14775,7 @@
         <v>42</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>42</v>
@@ -14775,18 +14783,18 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>42</v>
@@ -14798,15 +14806,17 @@
         <v>42</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>42</v>
@@ -14877,18 +14887,18 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>42</v>
@@ -14897,27 +14907,29 @@
         <v>42</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N126" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O126" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="R126" t="s" s="2">
         <v>42</v>
@@ -14970,10 +14982,10 @@
         <v>42</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>42</v>
@@ -14981,7 +14993,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15004,26 +15016,24 @@
         <v>52</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="R127" t="s" s="2">
         <v>42</v>
@@ -15076,10 +15086,10 @@
         <v>42</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>42</v>
@@ -15087,7 +15097,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15110,24 +15120,24 @@
         <v>52</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N128" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="N128" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O128" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
-        <v>42</v>
+        <v>447</v>
       </c>
       <c r="R128" t="s" s="2">
         <v>42</v>
@@ -15180,10 +15190,10 @@
         <v>42</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>42</v>
@@ -15191,7 +15201,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15214,24 +15224,24 @@
         <v>52</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
-        <v>449</v>
+        <v>42</v>
       </c>
       <c r="R129" t="s" s="2">
         <v>42</v>
@@ -15284,10 +15294,10 @@
         <v>42</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>42</v>
@@ -15295,7 +15305,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15318,17 +15328,19 @@
         <v>52</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M130" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="N130" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>42</v>
@@ -15388,10 +15400,10 @@
         <v>42</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>42</v>
@@ -15399,7 +15411,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15422,19 +15434,19 @@
         <v>52</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>42</v>
@@ -15494,10 +15506,10 @@
         <v>42</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>42</v>
@@ -15505,7 +15517,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15531,16 +15543,16 @@
         <v>178</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>206</v>
+        <v>418</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>207</v>
+        <v>419</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>208</v>
+        <v>449</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>42</v>
@@ -15562,7 +15574,7 @@
         <v>42</v>
       </c>
       <c r="V132" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W132" t="s" s="2">
         <v>42</v>
@@ -15588,11 +15600,15 @@
       <c r="AD132" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE132" s="2"/>
+      <c r="AE132" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG132" s="2"/>
+      <c r="AG132" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH132" t="s" s="2">
         <v>42</v>
       </c>
@@ -15600,10 +15616,10 @@
         <v>42</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>42</v>
@@ -15611,7 +15627,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15622,7 +15638,7 @@
         <v>40</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>42</v>
@@ -15631,22 +15647,22 @@
         <v>42</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>419</v>
+        <v>266</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>42</v>
@@ -15671,13 +15687,11 @@
         <v>40</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X133" s="2"/>
       <c r="Y133" t="s" s="2">
-        <v>42</v>
+        <v>269</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>42</v>
@@ -15695,7 +15709,7 @@
         <v>42</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
@@ -15704,16 +15718,16 @@
         <v>51</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>42</v>
@@ -15721,7 +15735,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -15732,7 +15746,7 @@
         <v>40</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>42</v>
@@ -15744,19 +15758,19 @@
         <v>42</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>128</v>
+        <v>319</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>424</v>
+        <v>322</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>42</v>
@@ -15778,14 +15792,16 @@
         <v>42</v>
       </c>
       <c r="V134" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X134" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y134" t="s" s="2">
-        <v>269</v>
+        <v>42</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>42</v>
@@ -15803,25 +15819,25 @@
         <v>42</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>88</v>
+        <v>325</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>42</v>
@@ -15829,7 +15845,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -15852,20 +15868,16 @@
         <v>42</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>319</v>
+        <v>53</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>426</v>
+        <v>151</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>42</v>
       </c>
@@ -15912,15 +15924,11 @@
       <c r="AD135" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE135" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="AE135" s="2"/>
       <c r="AF135" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG135" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG135" s="2"/>
       <c r="AH135" t="s" s="2">
         <v>42</v>
       </c>
@@ -15928,10 +15936,10 @@
         <v>42</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>325</v>
+        <v>42</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>326</v>
+        <v>153</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>42</v>
@@ -15939,18 +15947,18 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>42</v>
@@ -15962,15 +15970,17 @@
         <v>42</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M136" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>42</v>
@@ -16041,11 +16051,11 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -16058,7 +16068,7 @@
         <v>42</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I137" t="s" s="2">
         <v>42</v>
@@ -16067,10 +16077,10 @@
         <v>91</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>155</v>
+        <v>331</v>
       </c>
       <c r="M137" t="s" s="2">
         <v>94</v>
@@ -16137,7 +16147,7 @@
         <v>42</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>42</v>
@@ -16145,40 +16155,38 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>91</v>
+        <v>333</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>96</v>
+        <v>334</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M138" s="2"/>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>42</v>
@@ -16232,16 +16240,16 @@
       </c>
       <c r="AG138" s="2"/>
       <c r="AH138" t="s" s="2">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>88</v>
+        <v>338</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>42</v>
@@ -16249,7 +16257,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16275,10 +16283,10 @@
         <v>333</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -16343,7 +16351,7 @@
         <v>337</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>42</v>
@@ -16351,7 +16359,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16374,16 +16382,20 @@
         <v>42</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>333</v>
+        <v>128</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O140" t="s" s="2">
         <v>42</v>
       </c>
@@ -16407,13 +16419,13 @@
         <v>42</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>42</v>
@@ -16436,16 +16448,16 @@
       </c>
       <c r="AG140" s="2"/>
       <c r="AH140" t="s" s="2">
-        <v>336</v>
+        <v>42</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>42</v>
@@ -16453,7 +16465,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16476,19 +16488,17 @@
         <v>42</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>42</v>
@@ -16513,13 +16523,13 @@
         <v>42</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>42</v>
@@ -16548,10 +16558,10 @@
         <v>42</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>350</v>
+        <v>42</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>42</v>
@@ -16559,7 +16569,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16582,18 +16592,16 @@
         <v>42</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>352</v>
+        <v>178</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M142" s="2"/>
-      <c r="N142" t="s" s="2">
-        <v>355</v>
-      </c>
+      <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
         <v>42</v>
       </c>
@@ -16652,20 +16660,22 @@
         <v>42</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B143" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="C143" t="s" s="2">
         <v>42</v>
       </c>
@@ -16677,22 +16687,22 @@
         <v>51</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>178</v>
+        <v>319</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>358</v>
+        <v>451</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>359</v>
+        <v>452</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -16716,7 +16726,7 @@
         <v>42</v>
       </c>
       <c r="V143" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W143" t="s" s="2">
         <v>42</v>
@@ -16742,11 +16752,15 @@
       <c r="AD143" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE143" s="2"/>
+      <c r="AE143" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG143" s="2"/>
+      <c r="AG143" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH143" t="s" s="2">
         <v>42</v>
       </c>
@@ -16754,17 +16768,2851 @@
         <v>42</v>
       </c>
       <c r="AJ143" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" hidden="true">
+      <c r="A144" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" hidden="true">
+      <c r="A145" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N145" s="2"/>
+      <c r="O145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" hidden="true">
+      <c r="A146" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" hidden="true">
+      <c r="A147" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M147" s="2"/>
+      <c r="N147" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" hidden="true">
+      <c r="A148" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P148" s="2"/>
+      <c r="Q148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE148" s="2"/>
+      <c r="AF148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG148" s="2"/>
+      <c r="AH148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" hidden="true">
+      <c r="A149" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N149" s="2"/>
+      <c r="O149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE149" s="2"/>
+      <c r="AF149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG149" s="2"/>
+      <c r="AH149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" hidden="true">
+      <c r="A150" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AB150" s="2"/>
+      <c r="AC150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AE150" s="2"/>
+      <c r="AF150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG150" s="2"/>
+      <c r="AH150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" hidden="true">
+      <c r="A151" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F151" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P151" s="2"/>
+      <c r="Q151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE151" s="2"/>
+      <c r="AF151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG151" s="2"/>
+      <c r="AH151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" hidden="true">
+      <c r="A152" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F152" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P152" s="2"/>
+      <c r="Q152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE152" s="2"/>
+      <c r="AF152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG152" s="2"/>
+      <c r="AH152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL152" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" hidden="true">
+      <c r="A153" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F153" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N153" s="2"/>
+      <c r="O153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P153" s="2"/>
+      <c r="Q153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE153" s="2"/>
+      <c r="AF153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG153" s="2"/>
+      <c r="AH153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL153" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" hidden="true">
+      <c r="A154" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F154" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P154" s="2"/>
+      <c r="Q154" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="R154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE154" s="2"/>
+      <c r="AF154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG154" s="2"/>
+      <c r="AH154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL154" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155" hidden="true">
+      <c r="A155" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F155" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N155" s="2"/>
+      <c r="O155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P155" s="2"/>
+      <c r="Q155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE155" s="2"/>
+      <c r="AF155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG155" s="2"/>
+      <c r="AH155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL155" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156" hidden="true">
+      <c r="A156" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F156" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M156" s="2"/>
+      <c r="N156" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P156" s="2"/>
+      <c r="Q156" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="R156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE156" s="2"/>
+      <c r="AF156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG156" s="2"/>
+      <c r="AH156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" hidden="true">
+      <c r="A157" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F157" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M157" s="2"/>
+      <c r="N157" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P157" s="2"/>
+      <c r="Q157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE157" s="2"/>
+      <c r="AF157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG157" s="2"/>
+      <c r="AH157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" hidden="true">
+      <c r="A158" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F158" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P158" s="2"/>
+      <c r="Q158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE158" s="2"/>
+      <c r="AF158" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG158" s="2"/>
+      <c r="AH158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AK158" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="159" hidden="true">
+      <c r="A159" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F159" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N159" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P159" s="2"/>
+      <c r="Q159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE159" s="2"/>
+      <c r="AF159" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG159" s="2"/>
+      <c r="AH159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160" hidden="true">
+      <c r="A160" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F160" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="O160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P160" s="2"/>
+      <c r="Q160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL160" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161" hidden="true">
+      <c r="A161" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F161" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P161" s="2"/>
+      <c r="Q161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V161" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W161" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X161" s="2"/>
+      <c r="Y161" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE161" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF161" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG161" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH161" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AI161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ161" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AK161" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AL161" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" hidden="true">
+      <c r="A162" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N162" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P162" s="2"/>
+      <c r="Q162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE162" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF162" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG162" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK162" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL162" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="163" hidden="true">
+      <c r="A163" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F163" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P163" s="2"/>
+      <c r="Q163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE163" s="2"/>
+      <c r="AF163" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG163" s="2"/>
+      <c r="AH163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK163" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL163" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="164" hidden="true">
+      <c r="A164" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F164" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N164" s="2"/>
+      <c r="O164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P164" s="2"/>
+      <c r="Q164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE164" s="2"/>
+      <c r="AF164" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG164" s="2"/>
+      <c r="AH164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ164" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK164" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL164" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165" hidden="true">
+      <c r="A165" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F165" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L165" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N165" s="2"/>
+      <c r="O165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P165" s="2"/>
+      <c r="Q165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE165" s="2"/>
+      <c r="AF165" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG165" s="2"/>
+      <c r="AH165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ165" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK165" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AL165" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" hidden="true">
+      <c r="A166" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F166" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K166" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P166" s="2"/>
+      <c r="Q166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE166" s="2"/>
+      <c r="AF166" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG166" s="2"/>
+      <c r="AH166" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AI166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ166" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AK143" t="s" s="2">
+      <c r="AK166" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL166" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" hidden="true">
+      <c r="A167" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F167" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P167" s="2"/>
+      <c r="Q167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE167" s="2"/>
+      <c r="AF167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG167" s="2"/>
+      <c r="AH167" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL167" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168" hidden="true">
+      <c r="A168" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F168" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P168" s="2"/>
+      <c r="Q168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE168" s="2"/>
+      <c r="AF168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG168" s="2"/>
+      <c r="AH168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ168" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL168" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" hidden="true">
+      <c r="A169" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F169" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M169" s="2"/>
+      <c r="N169" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P169" s="2"/>
+      <c r="Q169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE169" s="2"/>
+      <c r="AF169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG169" s="2"/>
+      <c r="AH169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK169" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL169" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170" hidden="true">
+      <c r="A170" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F170" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
+      <c r="O170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P170" s="2"/>
+      <c r="Q170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE170" s="2"/>
+      <c r="AF170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG170" s="2"/>
+      <c r="AH170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ170" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK170" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AL143" t="s" s="2">
+      <c r="AL170" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL143">
+  <autoFilter ref="A1:AL170">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16774,7 +19622,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI142">
+  <conditionalFormatting sqref="A2:AI169">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
